--- a/Planet_List.xlsx
+++ b/Planet_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\pypoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1DF30-3C9F-4176-9A54-81A837ACDC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89995E5-F7C8-450A-8D9F-C5D5BDEF3889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{60E223E9-0EC0-4723-B93F-27D383EC8E0D}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Monde</t>
   </si>
   <si>
-    <t>Mond1;Mond2;Mond3</t>
+    <t>Jupiter-Mond 1;Jupiter-Mond 2;Jupiter-Mond 3</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
